--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.140223540805242</v>
+        <v>-0.1510908837489806</v>
       </c>
       <c r="C2">
-        <v>2.174112405165395</v>
+        <v>2.084195974016096</v>
       </c>
       <c r="D2">
-        <v>21.4570077762573</v>
+        <v>20.51875844210171</v>
       </c>
       <c r="E2">
-        <v>4.632170957149283</v>
+        <v>4.529763618788701</v>
       </c>
       <c r="F2">
-        <v>4.739005285253887</v>
+        <v>4.628991593011878</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.2487788959053289</v>
+        <v>-0.2243426211202774</v>
       </c>
       <c r="C3">
-        <v>2.475725881822799</v>
+        <v>2.382314769375817</v>
       </c>
       <c r="D3">
-        <v>19.99469697787995</v>
+        <v>19.09061844583581</v>
       </c>
       <c r="E3">
-        <v>4.471543019795287</v>
+        <v>4.369281227597487</v>
       </c>
       <c r="F3">
-        <v>4.574871182970475</v>
+        <v>4.46620300197608</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.7315156119614892</v>
+        <v>-0.7120868115500602</v>
       </c>
       <c r="C4">
-        <v>2.027380043607615</v>
+        <v>1.933618923903567</v>
       </c>
       <c r="D4">
-        <v>11.4352981467342</v>
+        <v>10.88254014902561</v>
       </c>
       <c r="E4">
-        <v>3.381611767594589</v>
+        <v>3.298869525917267</v>
       </c>
       <c r="F4">
-        <v>3.387311160973182</v>
+        <v>3.300643293046703</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.3202732598760849</v>
+        <v>-0.3051420100610381</v>
       </c>
       <c r="C5">
-        <v>1.6697220205733</v>
+        <v>1.578682252322016</v>
       </c>
       <c r="D5">
-        <v>10.77289658373155</v>
+        <v>10.2251943824045</v>
       </c>
       <c r="E5">
-        <v>3.282209101159089</v>
+        <v>3.197685785439917</v>
       </c>
       <c r="F5">
-        <v>3.356056803519224</v>
+        <v>3.265784782946779</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2854555801979855</v>
+        <v>-0.2804117665781</v>
       </c>
       <c r="C6">
-        <v>1.776712553208948</v>
+        <v>1.683207935177004</v>
       </c>
       <c r="D6">
-        <v>11.668044110114</v>
+        <v>11.04924039551323</v>
       </c>
       <c r="E6">
-        <v>3.415851886442678</v>
+        <v>3.324039770446983</v>
       </c>
       <c r="F6">
-        <v>3.502587833162125</v>
+        <v>3.402952828034286</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.3413398044261824</v>
+        <v>-0.3173356620072107</v>
       </c>
       <c r="C7">
-        <v>1.983055566997362</v>
+        <v>1.884213172660337</v>
       </c>
       <c r="D7">
-        <v>11.58605389703094</v>
+        <v>10.94775440033029</v>
       </c>
       <c r="E7">
-        <v>3.403829299044084</v>
+        <v>3.308739095234057</v>
       </c>
       <c r="F7">
-        <v>3.490900650208956</v>
+        <v>3.388969517186058</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2247054756340175</v>
+        <v>-0.2356007239738259</v>
       </c>
       <c r="C8">
-        <v>2.051126881576392</v>
+        <v>1.940837229566887</v>
       </c>
       <c r="D8">
-        <v>12.80509419165678</v>
+        <v>12.01945225291491</v>
       </c>
       <c r="E8">
-        <v>3.578420628106314</v>
+        <v>3.466908169091721</v>
       </c>
       <c r="F8">
-        <v>3.688483213590016</v>
+        <v>3.565345857874665</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.147300664445762</v>
+        <v>-0.1538742921933148</v>
       </c>
       <c r="C9">
-        <v>2.057601195878229</v>
+        <v>1.930586848953809</v>
       </c>
       <c r="D9">
-        <v>11.69948141575177</v>
+        <v>10.98523007623265</v>
       </c>
       <c r="E9">
-        <v>3.420450469711815</v>
+        <v>3.314397392623983</v>
       </c>
       <c r="F9">
-        <v>3.537218024603154</v>
+        <v>3.41940389010477</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1243844334346511</v>
+        <v>-0.1230455590706185</v>
       </c>
       <c r="C10">
-        <v>2.033479786042268</v>
+        <v>1.907399787585887</v>
       </c>
       <c r="D10">
-        <v>13.36549336451147</v>
+        <v>12.46868919605704</v>
       </c>
       <c r="E10">
-        <v>3.655884758100488</v>
+        <v>3.531103113200893</v>
       </c>
       <c r="F10">
-        <v>3.79169442822303</v>
+        <v>3.652819212576486</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06287395402409203</v>
+        <v>-0.09178185018074302</v>
       </c>
       <c r="C11">
-        <v>2.265973739118646</v>
+        <v>2.13619364861378</v>
       </c>
       <c r="D11">
-        <v>14.93377775919428</v>
+        <v>13.88641155430669</v>
       </c>
       <c r="E11">
-        <v>3.864424634948168</v>
+        <v>3.726447578365579</v>
       </c>
       <c r="F11">
-        <v>4.021688286925193</v>
+        <v>3.865944277603689</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1510908837489806</v>
+        <v>-0.2243426211202774</v>
       </c>
       <c r="C2">
-        <v>2.084195974016096</v>
+        <v>2.382314769375817</v>
       </c>
       <c r="D2">
-        <v>20.51875844210171</v>
+        <v>19.09061844583581</v>
       </c>
       <c r="E2">
-        <v>4.529763618788701</v>
+        <v>4.369281227597487</v>
       </c>
       <c r="F2">
-        <v>4.628991593011878</v>
+        <v>4.46620300197608</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.2243426211202774</v>
+        <v>-0.7120868115500602</v>
       </c>
       <c r="C3">
-        <v>2.382314769375817</v>
+        <v>1.933618923903567</v>
       </c>
       <c r="D3">
-        <v>19.09061844583581</v>
+        <v>10.88254014902561</v>
       </c>
       <c r="E3">
-        <v>4.369281227597487</v>
+        <v>3.298869525917267</v>
       </c>
       <c r="F3">
-        <v>4.46620300197608</v>
+        <v>3.300643293046703</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.7120868115500602</v>
+        <v>-0.3051420100610381</v>
       </c>
       <c r="C4">
-        <v>1.933618923903567</v>
+        <v>1.578682252322016</v>
       </c>
       <c r="D4">
-        <v>10.88254014902561</v>
+        <v>10.2251943824045</v>
       </c>
       <c r="E4">
-        <v>3.298869525917267</v>
+        <v>3.197685785439917</v>
       </c>
       <c r="F4">
-        <v>3.300643293046703</v>
+        <v>3.265784782946779</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.3051420100610381</v>
+        <v>-0.2804117665781</v>
       </c>
       <c r="C5">
-        <v>1.578682252322016</v>
+        <v>1.683207935177004</v>
       </c>
       <c r="D5">
-        <v>10.2251943824045</v>
+        <v>11.04924039551323</v>
       </c>
       <c r="E5">
-        <v>3.197685785439917</v>
+        <v>3.324039770446983</v>
       </c>
       <c r="F5">
-        <v>3.265784782946779</v>
+        <v>3.402952828034286</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.2804117665781</v>
+        <v>-0.3173356620072107</v>
       </c>
       <c r="C6">
-        <v>1.683207935177004</v>
+        <v>1.884213172660337</v>
       </c>
       <c r="D6">
-        <v>11.04924039551323</v>
+        <v>10.94775440033029</v>
       </c>
       <c r="E6">
-        <v>3.324039770446983</v>
+        <v>3.308739095234057</v>
       </c>
       <c r="F6">
-        <v>3.402952828034286</v>
+        <v>3.388969517186058</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.3173356620072107</v>
+        <v>-0.2356007239738259</v>
       </c>
       <c r="C7">
-        <v>1.884213172660337</v>
+        <v>1.940837229566887</v>
       </c>
       <c r="D7">
-        <v>10.94775440033029</v>
+        <v>12.01945225291491</v>
       </c>
       <c r="E7">
-        <v>3.308739095234057</v>
+        <v>3.466908169091721</v>
       </c>
       <c r="F7">
-        <v>3.388969517186058</v>
+        <v>3.565345857874665</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2356007239738259</v>
+        <v>-0.1538742921933148</v>
       </c>
       <c r="C8">
-        <v>1.940837229566887</v>
+        <v>1.930586848953809</v>
       </c>
       <c r="D8">
-        <v>12.01945225291491</v>
+        <v>10.98523007623265</v>
       </c>
       <c r="E8">
-        <v>3.466908169091721</v>
+        <v>3.314397392623983</v>
       </c>
       <c r="F8">
-        <v>3.565345857874665</v>
+        <v>3.41940389010477</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1538742921933148</v>
+        <v>-0.1230455590706185</v>
       </c>
       <c r="C9">
-        <v>1.930586848953809</v>
+        <v>1.907399787585887</v>
       </c>
       <c r="D9">
-        <v>10.98523007623265</v>
+        <v>12.46868919605704</v>
       </c>
       <c r="E9">
-        <v>3.314397392623983</v>
+        <v>3.531103113200893</v>
       </c>
       <c r="F9">
-        <v>3.41940389010477</v>
+        <v>3.652819212576486</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1230455590706185</v>
+        <v>-0.09178185018074302</v>
       </c>
       <c r="C10">
-        <v>1.907399787585887</v>
+        <v>2.13619364861378</v>
       </c>
       <c r="D10">
-        <v>12.46868919605704</v>
+        <v>13.88641155430669</v>
       </c>
       <c r="E10">
-        <v>3.531103113200893</v>
+        <v>3.726447578365579</v>
       </c>
       <c r="F10">
-        <v>3.652819212576486</v>
+        <v>3.865944277603689</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.09178185018074302</v>
+        <v>-0.08394991111291034</v>
       </c>
       <c r="C11">
-        <v>2.13619364861378</v>
+        <v>2.334233754498058</v>
       </c>
       <c r="D11">
-        <v>13.88641155430669</v>
+        <v>14.90545946209773</v>
       </c>
       <c r="E11">
-        <v>3.726447578365579</v>
+        <v>3.860758923074286</v>
       </c>
       <c r="F11">
-        <v>3.865944277603689</v>
+        <v>4.017455189220993</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST/AVERAGE_1_9_matched_error_tables_latest.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2243426211202774</v>
+        <v>-0.1510908837489806</v>
       </c>
       <c r="C2">
-        <v>2.382314769375817</v>
+        <v>2.084195974016096</v>
       </c>
       <c r="D2">
-        <v>19.09061844583581</v>
+        <v>20.51875844210171</v>
       </c>
       <c r="E2">
-        <v>4.369281227597487</v>
+        <v>4.529763618788701</v>
       </c>
       <c r="F2">
-        <v>4.46620300197608</v>
+        <v>4.628991593011878</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.7120868115500602</v>
+        <v>-0.2243426211202774</v>
       </c>
       <c r="C3">
-        <v>1.933618923903567</v>
+        <v>2.382314769375817</v>
       </c>
       <c r="D3">
-        <v>10.88254014902561</v>
+        <v>19.09061844583581</v>
       </c>
       <c r="E3">
-        <v>3.298869525917267</v>
+        <v>4.369281227597487</v>
       </c>
       <c r="F3">
-        <v>3.300643293046703</v>
+        <v>4.46620300197608</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.3051420100610381</v>
+        <v>-0.7120868115500602</v>
       </c>
       <c r="C4">
-        <v>1.578682252322016</v>
+        <v>1.933618923903567</v>
       </c>
       <c r="D4">
-        <v>10.2251943824045</v>
+        <v>10.88254014902561</v>
       </c>
       <c r="E4">
-        <v>3.197685785439917</v>
+        <v>3.298869525917267</v>
       </c>
       <c r="F4">
-        <v>3.265784782946779</v>
+        <v>3.300643293046703</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.2804117665781</v>
+        <v>-0.3051420100610381</v>
       </c>
       <c r="C5">
-        <v>1.683207935177004</v>
+        <v>1.578682252322016</v>
       </c>
       <c r="D5">
-        <v>11.04924039551323</v>
+        <v>10.2251943824045</v>
       </c>
       <c r="E5">
-        <v>3.324039770446983</v>
+        <v>3.197685785439917</v>
       </c>
       <c r="F5">
-        <v>3.402952828034286</v>
+        <v>3.265784782946779</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.3173356620072107</v>
+        <v>-0.2804117665781</v>
       </c>
       <c r="C6">
-        <v>1.884213172660337</v>
+        <v>1.683207935177004</v>
       </c>
       <c r="D6">
-        <v>10.94775440033029</v>
+        <v>11.04924039551323</v>
       </c>
       <c r="E6">
-        <v>3.308739095234057</v>
+        <v>3.324039770446983</v>
       </c>
       <c r="F6">
-        <v>3.388969517186058</v>
+        <v>3.402952828034286</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.2356007239738259</v>
+        <v>-0.3173356620072107</v>
       </c>
       <c r="C7">
-        <v>1.940837229566887</v>
+        <v>1.884213172660337</v>
       </c>
       <c r="D7">
-        <v>12.01945225291491</v>
+        <v>10.94775440033029</v>
       </c>
       <c r="E7">
-        <v>3.466908169091721</v>
+        <v>3.308739095234057</v>
       </c>
       <c r="F7">
-        <v>3.565345857874665</v>
+        <v>3.388969517186058</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1538742921933148</v>
+        <v>-0.2356007239738259</v>
       </c>
       <c r="C8">
-        <v>1.930586848953809</v>
+        <v>1.940837229566887</v>
       </c>
       <c r="D8">
-        <v>10.98523007623265</v>
+        <v>12.01945225291491</v>
       </c>
       <c r="E8">
-        <v>3.314397392623983</v>
+        <v>3.466908169091721</v>
       </c>
       <c r="F8">
-        <v>3.41940389010477</v>
+        <v>3.565345857874665</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1230455590706185</v>
+        <v>-0.1538742921933148</v>
       </c>
       <c r="C9">
-        <v>1.907399787585887</v>
+        <v>1.930586848953809</v>
       </c>
       <c r="D9">
-        <v>12.46868919605704</v>
+        <v>10.98523007623265</v>
       </c>
       <c r="E9">
-        <v>3.531103113200893</v>
+        <v>3.314397392623983</v>
       </c>
       <c r="F9">
-        <v>3.652819212576486</v>
+        <v>3.41940389010477</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.09178185018074302</v>
+        <v>-0.1230455590706185</v>
       </c>
       <c r="C10">
-        <v>2.13619364861378</v>
+        <v>1.907399787585887</v>
       </c>
       <c r="D10">
-        <v>13.88641155430669</v>
+        <v>12.46868919605704</v>
       </c>
       <c r="E10">
-        <v>3.726447578365579</v>
+        <v>3.531103113200893</v>
       </c>
       <c r="F10">
-        <v>3.865944277603689</v>
+        <v>3.652819212576486</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.08394991111291034</v>
+        <v>-0.09178185018074302</v>
       </c>
       <c r="C11">
-        <v>2.334233754498058</v>
+        <v>2.13619364861378</v>
       </c>
       <c r="D11">
-        <v>14.90545946209773</v>
+        <v>13.88641155430669</v>
       </c>
       <c r="E11">
-        <v>3.860758923074286</v>
+        <v>3.726447578365579</v>
       </c>
       <c r="F11">
-        <v>4.017455189220993</v>
+        <v>3.865944277603689</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
